--- a/config_6.01/shoping_config.xlsx
+++ b/config_6.01/shoping_config.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5134" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5146" uniqueCount="1841">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5829,6 +5829,30 @@
   </si>
   <si>
     <t>49800000,1688,</t>
+  </si>
+  <si>
+    <t>海王礼包</t>
+  </si>
+  <si>
+    <t>"500万金币","海王炮台(30天)"</t>
+  </si>
+  <si>
+    <t>"jing_bi","gun_barrel_13",</t>
+  </si>
+  <si>
+    <t>5000000,2592000</t>
+  </si>
+  <si>
+    <t>2505600,1,0</t>
+  </si>
+  <si>
+    <t>海王礼包至尊版</t>
+  </si>
+  <si>
+    <t>"980万金币","海王炮台(30天)"</t>
+  </si>
+  <si>
+    <t>9800000,2592000</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6707,8 +6731,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -6750,15 +6774,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6772,8 +6795,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6789,13 +6873,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6803,53 +6880,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6864,23 +6896,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7003,13 +7027,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7027,103 +7165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7135,25 +7177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7193,17 +7217,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7219,11 +7232,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7246,23 +7265,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7284,9 +7306,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7298,10 +7322,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7310,133 +7334,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13627,14 +13651,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN646"/>
+  <dimension ref="A1:AN648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H631" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AL623" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H656" sqref="H656"/>
+      <selection pane="bottomRight" activeCell="AV647" sqref="AV647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -55262,6 +55286,130 @@
         <v>1</v>
       </c>
     </row>
+    <row r="647" s="28" customFormat="1" spans="1:39">
+      <c r="A647" s="28">
+        <v>646</v>
+      </c>
+      <c r="B647" s="28">
+        <v>10563</v>
+      </c>
+      <c r="F647" s="28">
+        <v>1</v>
+      </c>
+      <c r="G647" s="28" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J647" s="28" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L647" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M647" s="28">
+        <v>0</v>
+      </c>
+      <c r="N647" s="28">
+        <v>0</v>
+      </c>
+      <c r="O647" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P647" s="28">
+        <v>19800</v>
+      </c>
+      <c r="Q647" s="28" t="s">
+        <v>1638</v>
+      </c>
+      <c r="R647" s="45" t="s">
+        <v>1639</v>
+      </c>
+      <c r="W647" s="28" t="s">
+        <v>1640</v>
+      </c>
+      <c r="X647" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y647" s="28">
+        <v>1620576000</v>
+      </c>
+      <c r="Z647" s="28">
+        <v>2552233600</v>
+      </c>
+      <c r="AH647" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI647" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL647" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM647" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" s="28" customFormat="1" spans="1:39">
+      <c r="A648" s="28">
+        <v>647</v>
+      </c>
+      <c r="B648" s="28">
+        <v>10564</v>
+      </c>
+      <c r="F648" s="28">
+        <v>1</v>
+      </c>
+      <c r="G648" s="28" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J648" s="28" t="s">
+        <v>1642</v>
+      </c>
+      <c r="L648" s="28">
+        <v>-31</v>
+      </c>
+      <c r="M648" s="28">
+        <v>0</v>
+      </c>
+      <c r="N648" s="28">
+        <v>0</v>
+      </c>
+      <c r="O648" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="P648" s="28">
+        <v>69800</v>
+      </c>
+      <c r="Q648" s="28" t="s">
+        <v>1638</v>
+      </c>
+      <c r="R648" s="45" t="s">
+        <v>1643</v>
+      </c>
+      <c r="W648" s="28" t="s">
+        <v>1640</v>
+      </c>
+      <c r="X648" s="28">
+        <v>99999999</v>
+      </c>
+      <c r="Y648" s="28">
+        <v>1620576000</v>
+      </c>
+      <c r="Z648" s="28">
+        <v>2552233600</v>
+      </c>
+      <c r="AH648" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI648" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL648" s="28">
+        <v>1</v>
+      </c>
+      <c r="AM648" s="28">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A542:AN548">
     <sortCondition ref="A542" descending="1"/>
@@ -55291,19 +55439,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1636</v>
+        <v>1644</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1637</v>
+        <v>1645</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1638</v>
+        <v>1646</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1640</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -55311,7 +55459,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -55320,7 +55468,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1642</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -55328,7 +55476,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -55342,7 +55490,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1644</v>
+        <v>1652</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -55356,7 +55504,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1645</v>
+        <v>1653</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -55370,7 +55518,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -55384,7 +55532,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -55398,7 +55546,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1648</v>
+        <v>1656</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -55412,7 +55560,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -55426,7 +55574,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -55440,7 +55588,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -55454,7 +55602,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -55468,7 +55616,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -55482,7 +55630,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -55496,7 +55644,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -55510,7 +55658,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -55524,7 +55672,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -55538,7 +55686,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -55552,7 +55700,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -55566,7 +55714,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -55580,7 +55728,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -55594,7 +55742,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1660</v>
+        <v>1668</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -55608,7 +55756,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1661</v>
+        <v>1669</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -55622,7 +55770,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1662</v>
+        <v>1670</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -55636,7 +55784,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -55650,7 +55798,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1664</v>
+        <v>1672</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -55664,7 +55812,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -55679,7 +55827,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -55694,7 +55842,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -55709,7 +55857,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -55724,7 +55872,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -55739,7 +55887,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -55754,7 +55902,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -55769,7 +55917,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1672</v>
+        <v>1680</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -55784,7 +55932,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -55799,7 +55947,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -55814,7 +55962,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1675</v>
+        <v>1683</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -55829,7 +55977,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -55844,7 +55992,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -55858,7 +56006,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -55872,7 +56020,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -55886,7 +56034,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -55900,7 +56048,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -55914,7 +56062,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -55928,7 +56076,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -55942,7 +56090,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -55956,7 +56104,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -55970,7 +56118,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -55984,7 +56132,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -55998,7 +56146,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -56012,7 +56160,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -56026,7 +56174,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -56040,7 +56188,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -56054,7 +56202,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -56068,7 +56216,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -56082,7 +56230,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -56096,7 +56244,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -56110,7 +56258,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -56124,7 +56272,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -56138,7 +56286,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -56152,7 +56300,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -56166,7 +56314,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -56180,7 +56328,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -56194,7 +56342,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -56208,7 +56356,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -56222,7 +56370,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -56236,7 +56384,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -56250,7 +56398,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -56264,7 +56412,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -56278,7 +56426,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -56292,7 +56440,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -56306,7 +56454,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -56320,7 +56468,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -56334,7 +56482,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -56348,7 +56496,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -56362,7 +56510,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -56376,7 +56524,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -56390,7 +56538,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -56404,7 +56552,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -56418,7 +56566,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -56432,7 +56580,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>1719</v>
+        <v>1727</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -56446,7 +56594,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -56460,7 +56608,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -56474,7 +56622,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -56488,7 +56636,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -56542,7 +56690,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -56557,19 +56705,19 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>32</v>
@@ -56584,7 +56732,7 @@
         <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1730</v>
+        <v>1738</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -56629,7 +56777,7 @@
         <v>53</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1731</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:27">
@@ -56649,7 +56797,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H2" s="12">
         <v>600</v>
@@ -56679,19 +56827,19 @@
         <v>131</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>1733</v>
+        <v>1741</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z2" s="12">
         <v>1</v>
@@ -56720,7 +56868,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H3" s="12">
         <v>1500</v>
@@ -56747,22 +56895,22 @@
         <v>4</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>67</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z3" s="12">
         <v>1</v>
@@ -56791,7 +56939,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H4" s="12">
         <v>3000</v>
@@ -56818,22 +56966,22 @@
         <v>5</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z4" s="12">
         <v>1</v>
@@ -56862,7 +57010,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H5" s="12">
         <v>5000</v>
@@ -56889,22 +57037,22 @@
         <v>6</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z5" s="12">
         <v>1</v>
@@ -56933,7 +57081,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H6" s="12">
         <v>9800</v>
@@ -56960,22 +57108,22 @@
         <v>7</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U6" s="12" t="s">
         <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z6" s="12">
         <v>1</v>
@@ -57004,7 +57152,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H7" s="12">
         <v>49800</v>
@@ -57031,22 +57179,22 @@
         <v>9</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1751</v>
+        <v>1759</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z7" s="12">
         <v>1</v>
@@ -57070,7 +57218,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H8" s="12">
         <v>100</v>
@@ -57097,22 +57245,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z8" s="12">
         <v>1</v>
@@ -57136,7 +57284,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H9" s="12">
         <v>5000</v>
@@ -57163,19 +57311,19 @@
         <v>2</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="U9" s="12">
         <v>5000</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z9" s="12">
         <v>1</v>
@@ -57184,7 +57332,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:30">
@@ -57202,7 +57350,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H10" s="12">
         <v>1000</v>
@@ -57232,16 +57380,16 @@
         <v>133</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="U10" s="12">
         <v>1000</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z10" s="12">
         <v>1</v>
@@ -57250,7 +57398,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:27">
@@ -57268,7 +57416,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H11" s="12">
         <v>1500</v>
@@ -57295,22 +57443,22 @@
         <v>0</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U11" s="17" t="s">
         <v>67</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z11" s="12">
         <v>1</v>
@@ -57339,7 +57487,7 @@
         <v>107</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H12" s="12">
         <v>100000</v>
@@ -57366,22 +57514,22 @@
         <v>9</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="W12" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z12" s="12">
         <v>1</v>
@@ -57410,7 +57558,7 @@
         <v>108</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H13" s="12">
         <v>99800</v>
@@ -57437,22 +57585,22 @@
         <v>10</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z13" s="12">
         <v>1</v>
@@ -57481,7 +57629,7 @@
         <v>110</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H14" s="12">
         <v>249800</v>
@@ -57508,22 +57656,22 @@
         <v>11</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z14" s="12">
         <v>1</v>
@@ -57547,7 +57695,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H15" s="12">
         <v>100</v>
@@ -57577,20 +57725,20 @@
         <v>0</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="T15" s="17"/>
       <c r="U15" s="12">
         <v>100</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z15" s="12">
         <v>1</v>
@@ -57599,7 +57747,7 @@
         <v>1</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:27">
@@ -57622,7 +57770,7 @@
         <v>101</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H16" s="12">
         <v>400</v>
@@ -57649,22 +57797,22 @@
         <v>3</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z16" s="12">
         <v>1</v>
@@ -57688,7 +57836,7 @@
         <v>102</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H17" s="12">
         <v>2000</v>
@@ -57715,22 +57863,22 @@
         <v>4</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z17" s="12">
         <v>1</v>
@@ -57754,7 +57902,7 @@
         <v>103</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H18" s="12">
         <v>6700</v>
@@ -57781,22 +57929,22 @@
         <v>5</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z18" s="12">
         <v>1</v>
@@ -57820,7 +57968,7 @@
         <v>104</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H19" s="12">
         <v>13200</v>
@@ -57847,22 +57995,22 @@
         <v>6</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z19" s="12">
         <v>1</v>
@@ -57886,7 +58034,7 @@
         <v>105</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H20" s="12">
         <v>20400</v>
@@ -57913,22 +58061,22 @@
         <v>7</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z20" s="12">
         <v>1</v>
@@ -57952,7 +58100,7 @@
         <v>101</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H21" s="13">
         <v>100</v>
@@ -57979,22 +58127,22 @@
         <v>0</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>124</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z21" s="13">
         <v>1</v>
@@ -58018,7 +58166,7 @@
         <v>104</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H22" s="12">
         <v>5000</v>
@@ -58045,20 +58193,20 @@
         <v>2</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="T22" s="17"/>
       <c r="U22" s="12">
         <v>5000</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z22" s="12">
         <v>1</v>
@@ -58082,7 +58230,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H23" s="12">
         <v>1000</v>
@@ -58112,17 +58260,17 @@
         <v>133</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="12">
         <v>1000</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z23" s="12">
         <v>1</v>
@@ -58139,14 +58287,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="D24" s="15"/>
       <c r="F24" s="12">
         <v>101</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="H24" s="12">
         <v>100</v>
@@ -58176,20 +58324,20 @@
         <v>0</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>1752</v>
+        <v>1760</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>1753</v>
+        <v>1761</v>
       </c>
       <c r="T24" s="17"/>
       <c r="U24" s="12">
         <v>100</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z24" s="12">
         <v>1</v>
@@ -58198,7 +58346,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:27">
@@ -58221,7 +58369,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="H25" s="12">
         <v>19800</v>
@@ -58248,22 +58396,22 @@
         <v>8</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="U25" s="17" t="s">
         <v>143</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="Z25" s="12">
         <v>1</v>
@@ -58333,13 +58481,13 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>32</v>
@@ -58351,16 +58499,16 @@
         <v>154</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -58401,7 +58549,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -58413,7 +58561,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -58422,7 +58570,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -58431,22 +58579,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -58457,7 +58605,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -58469,7 +58617,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -58478,7 +58626,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -58487,22 +58635,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -58516,7 +58664,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -58541,19 +58689,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -58564,7 +58712,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -58591,10 +58739,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -58605,7 +58753,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -58632,10 +58780,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -58646,7 +58794,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -58658,7 +58806,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -58667,7 +58815,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -58676,22 +58824,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -58705,10 +58853,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -58720,7 +58868,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -58735,22 +58883,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -58761,10 +58909,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -58779,16 +58927,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -58799,10 +58947,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -58817,16 +58965,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -58837,10 +58985,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -58855,16 +59003,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -58875,10 +59023,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -58893,16 +59041,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -58913,7 +59061,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -58937,16 +59085,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -58960,7 +59108,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -58984,16 +59132,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -59007,10 +59155,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -59031,16 +59179,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -59054,10 +59202,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -59073,13 +59221,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -59090,10 +59238,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -59109,13 +59257,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -59126,7 +59274,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -59145,13 +59293,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -59162,7 +59310,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -59181,13 +59329,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -59198,7 +59346,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -59216,16 +59364,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -59236,7 +59384,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -59254,16 +59402,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
     </row>
   </sheetData>
